--- a/blok1/slb/Weekplanning.xlsx
+++ b/blok1/slb/Weekplanning.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenp\Desktop\bmt\blok1\slb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1810455-0AC3-443F-9E87-1A05CF3A486F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekschema" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>maandag</t>
   </si>
@@ -170,12 +176,15 @@
   </si>
   <si>
     <t xml:space="preserve">Geef door middel van een kleurcode in de kolom Realisatie van het weekschema aan wanneer je tijd spendeerde aan activiteiten behorend bij een bepaalde categorie: </t>
+  </si>
+  <si>
+    <t>Chen pei</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -255,7 +264,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +331,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -760,7 +793,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -940,20 +973,35 @@
     <xf numFmtId="20" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1241,33 +1289,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="8" max="8" width="1.6640625" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.6640625" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" customWidth="1"/>
     <col min="14" max="14" width="1.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" customWidth="1"/>
     <col min="17" max="17" width="1.6640625" customWidth="1"/>
     <col min="18" max="18" width="9.33203125" customWidth="1"/>
@@ -1277,12 +1325,12 @@
     <col min="22" max="22" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16">
+    <row r="1" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="24" customHeight="1">
+    <row r="2" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -1308,7 +1356,7 @@
       <c r="U2" s="14"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>16</v>
       </c>
@@ -1339,7 +1387,7 @@
       <c r="R3" s="50"/>
       <c r="S3" s="25"/>
     </row>
-    <row r="4" spans="1:23" ht="12.75" customHeight="1">
+    <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>18</v>
       </c>
@@ -1370,7 +1418,7 @@
       <c r="R4" s="55"/>
       <c r="S4" s="26"/>
     </row>
-    <row r="5" spans="1:23" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1449,7 @@
       <c r="R5" s="60"/>
       <c r="S5" s="27"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1483,7 @@
       <c r="U6"/>
       <c r="V6"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>33</v>
       </c>
@@ -1468,14 +1516,16 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:23" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:23" ht="31.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:23" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="123">
+        <v>44473</v>
+      </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="33"/>
@@ -1483,7 +1533,9 @@
       <c r="I9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="32"/>
+      <c r="J9" s="123">
+        <v>44477</v>
+      </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="M9" s="33"/>
@@ -1491,7 +1543,9 @@
       <c r="O9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="32"/>
+      <c r="P9" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
@@ -1500,7 +1554,7 @@
       <c r="V9" s="33"/>
       <c r="W9" s="36"/>
     </row>
-    <row r="10" spans="1:23" ht="18" customHeight="1">
+    <row r="10" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1595,7 @@
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
     </row>
-    <row r="11" spans="1:23" ht="18" customHeight="1">
+    <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43"/>
       <c r="C11" s="44" t="s">
@@ -1594,605 +1648,605 @@
       </c>
       <c r="W11" s="36"/>
     </row>
-    <row r="12" spans="1:23" ht="18" customHeight="1">
+    <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
         <v>0.29166666666666669</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="117"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="118"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="118"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="R12" s="117"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="U12" s="117"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:23" ht="18" customHeight="1">
+    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101">
         <v>0.33333333333333331</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="118"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="118"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="118"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="R13" s="117"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="U13" s="117"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:23" ht="18" customHeight="1">
+    <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101">
         <v>0.375</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="52"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="R14" s="117"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="U14" s="117"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1">
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
         <v>0.41666666666666702</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="52"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="R15" s="117"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="U15" s="117"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1">
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="101">
         <v>0.45833333333333298</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="O16" s="52"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="U16" s="27"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" ht="18" customHeight="1">
+    <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101">
         <v>0.5</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="52"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="R17" s="27"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="U17" s="27"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" ht="18" customHeight="1">
+    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
         <v>0.54166666666666696</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="27"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="U18" s="27"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" ht="18" customHeight="1">
+    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101">
         <v>0.58333333333333304</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="67"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="R19" s="27"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="U19" s="27"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" ht="18" customHeight="1">
+    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
         <v>0.625</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="118"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="O20" s="52"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="27"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="U20" s="27"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" ht="18" customHeight="1">
+    <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
         <v>0.66666666666666696</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="119"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="O21" s="52"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="R21" s="27"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="U21" s="27"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" ht="18" customHeight="1">
+    <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101">
         <v>0.70833333333333304</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="R22" s="27"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="U22" s="52"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" ht="18" customHeight="1">
+    <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101">
         <v>0.75</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="118"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="R23" s="27"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="U23" s="52"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="1:22" ht="18" customHeight="1">
+    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101">
         <v>0.79166666666666696</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="119"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="O24" s="118"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="R24" s="27"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="U24" s="52"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" ht="18" customHeight="1">
+    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="101">
         <v>0.83333333333333304</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="O25" s="119"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="R25" s="27"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="U25" s="52"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" ht="18" customHeight="1">
+    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101">
         <v>0.875</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="O26" s="27"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="R26" s="27"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
+      <c r="U26" s="52"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" ht="18" customHeight="1">
+    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
         <v>0.91666666666666696</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="R27" s="27"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+      <c r="U27" s="52"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" ht="18" customHeight="1">
+    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101">
         <v>0.95833333333333304</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="120"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="O28" s="23"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="R28" s="27"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" ht="18" customHeight="1">
+    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
         <v>1</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="O29" s="27"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="R29" s="27"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="U29" s="27"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" ht="18" customHeight="1">
+    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <v>1.0416666666666701</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="117"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="117"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="117"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="117"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="O30" s="117"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="R30" s="117"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
+      <c r="U30" s="117"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" ht="18" customHeight="1">
+    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <v>1.0833333333333299</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="117"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="117"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="117"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="O31" s="117"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="R31" s="117"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="U31" s="117"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" ht="18" customHeight="1">
+    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="101">
         <v>1.125</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="117"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="117"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="117"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="O32" s="117"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="117"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+      <c r="U32" s="117"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" ht="18" customHeight="1">
+    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <v>1.1666666666666701</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="117"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="117"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="117"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="O33" s="117"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="R33" s="117"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
+      <c r="U33" s="117"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" ht="18" customHeight="1">
+    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101">
         <v>1.2083333333333299</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="117"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="117"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="O34" s="117"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="R34" s="117"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="U34" s="117"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" ht="18" customHeight="1" thickBot="1">
+    <row r="35" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="102">
         <v>1.25</v>
       </c>
@@ -2212,19 +2266,19 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="R35" s="117"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
+      <c r="U35" s="117"/>
       <c r="V35" s="7"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
     </row>
   </sheetData>
@@ -2243,23 +2297,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" customWidth="1"/>
-    <col min="3" max="3" width="2.5" customWidth="1"/>
-    <col min="4" max="4" width="66.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" customWidth="1"/>
+    <col min="4" max="4" width="66.109375" customWidth="1"/>
     <col min="5" max="5" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="103" t="s">
         <v>46</v>
       </c>
@@ -2270,7 +2324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="104" t="s">
         <v>14</v>
       </c>
@@ -2281,7 +2335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +2348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="113">
         <v>0.29166666666666669</v>
       </c>
@@ -2305,7 +2359,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="113">
         <v>0.33333333333333331</v>
       </c>
@@ -2316,7 +2370,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="113">
         <v>0.375</v>
       </c>
@@ -2327,7 +2381,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1">
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="113">
         <v>0.41666666666666702</v>
       </c>
@@ -2338,7 +2392,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="113">
         <v>0.45833333333333298</v>
       </c>
@@ -2349,7 +2403,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1">
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="113">
         <v>0.5</v>
       </c>
@@ -2360,7 +2414,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1">
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="113">
         <v>0.54166666666666696</v>
       </c>
@@ -2371,7 +2425,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1">
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="113">
         <v>0.58333333333333304</v>
       </c>
@@ -2382,7 +2436,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="113">
         <v>0.625</v>
       </c>
@@ -2393,7 +2447,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1">
+    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113">
         <v>0.66666666666666696</v>
       </c>
@@ -2404,7 +2458,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1">
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113">
         <v>0.70833333333333304</v>
       </c>
@@ -2415,7 +2469,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1">
+    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="113">
         <v>0.75</v>
       </c>
@@ -2426,7 +2480,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1">
+    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="113">
         <v>0.79166666666666696</v>
       </c>
@@ -2437,7 +2491,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1">
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="113">
         <v>0.83333333333333304</v>
       </c>
@@ -2448,7 +2502,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1">
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="113">
         <v>0.875</v>
       </c>
@@ -2459,7 +2513,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1">
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="113">
         <v>0.91666666666666696</v>
       </c>
@@ -2470,7 +2524,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1">
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="113">
         <v>0.95833333333333304</v>
       </c>
@@ -2481,7 +2535,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1">
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="113">
         <v>1</v>
       </c>
@@ -2492,7 +2546,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1">
+    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="113">
         <v>1.0416666666666701</v>
       </c>
@@ -2503,7 +2557,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1">
+    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="113">
         <v>1.0833333333333299</v>
       </c>
@@ -2514,7 +2568,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1">
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="113">
         <v>1.125</v>
       </c>
@@ -2525,7 +2579,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1">
+    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="113">
         <v>1.1666666666666701</v>
       </c>
@@ -2536,7 +2590,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="113">
         <v>1.2083333333333299</v>
       </c>
@@ -2547,7 +2601,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="116">
         <v>1.25</v>
       </c>
@@ -2558,31 +2612,31 @@
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
     </row>
   </sheetData>
@@ -2601,6 +2655,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C9C83A0C947A4787A1EC8E1D274DA6" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ad5a8e8a53871470320819353dd435e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f97e7a27-b37d-49bf-9b21-f0024f52156f" xmlns:ns3="66a57af0-686b-43c0-b471-887217f3da14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a6bcd581640fae49d72bed925e31f07" ns2:_="" ns3:_="">
     <xsd:import namespace="f97e7a27-b37d-49bf-9b21-f0024f52156f"/>
@@ -2817,15 +2880,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2833,13 +2887,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1BF1FC-FCFB-46EA-AC98-C8CBFB1914F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C7053BE-D0E1-4125-B68C-772ED80E87F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C7053BE-D0E1-4125-B68C-772ED80E87F2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1BF1FC-FCFB-46EA-AC98-C8CBFB1914F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f97e7a27-b37d-49bf-9b21-f0024f52156f"/>
+    <ds:schemaRef ds:uri="66a57af0-686b-43c0-b471-887217f3da14"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
